--- a/fuentes/contenidos/grado09/guion02/SolicitudVideos CN_09_02_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion02/SolicitudVideos CN_09_02_CO.xlsx
@@ -51,9 +51,6 @@
     <t>Ciencias Naturales</t>
   </si>
   <si>
-    <t>Recurso</t>
-  </si>
-  <si>
     <t>AP</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>VI012002</t>
+  </si>
+  <si>
+    <t>Media principal</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -445,7 +445,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,25 +492,25 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.45">
